--- a/ACCT_009_01_02_2021_c.xlsx
+++ b/ACCT_009_01_02_2021_c.xlsx
@@ -19,7 +19,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="21" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -888,7 +888,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="128">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -1118,6 +1118,47 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <sz val="14"/>
       </font>
@@ -1153,6 +1194,12 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <sz val="12"/>
       </font>
@@ -1188,16 +1235,261 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1311,6 +1603,160 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1321,7 +1767,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ACCT_009_01_02_2021_c!$Q$11</c:f>
+              <c:f>ACCT_009_01_02_2021_c!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1344,6 +1790,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1359,6 +1810,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1374,6 +1830,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1389,6 +1850,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1404,6 +1870,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1419,6 +1890,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1436,6 +1912,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1453,6 +1934,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1470,6 +1956,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1487,6 +1978,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1504,10 +2000,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-6C07-49B2-B7F2-828AAAC0A228}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>ACCT_009_01_02_2021_c!$P$12:$P$23</c:f>
+              <c:f>ACCT_009_01_02_2021_c!$P$3:$P$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1520,19 +2021,19 @@
                   <c:v>goods</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>unspecified</c:v>
+                  <c:v>home</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>home</c:v>
+                  <c:v>health</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>cafe</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>health</c:v>
+                  <c:v>office</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>office</c:v>
+                  <c:v>unspecified</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>transport</c:v>
@@ -1548,33 +2049,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ACCT_009_01_02_2021_c!$Q$12:$Q$23</c:f>
+              <c:f>ACCT_009_01_02_2021_c!$Q$3:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-41639.799999999988</c:v>
+                  <c:v>-45806.369999999988</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-29800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-20381.650000000001</c:v>
+                  <c:v>-21915.649999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14379.67</c:v>
+                  <c:v>-10860.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10860.32</c:v>
+                  <c:v>-10291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9504.76</c:v>
+                  <c:v>-9914.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6841</c:v>
+                  <c:v>-5099.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4437.1499999999996</c:v>
+                  <c:v>-3707.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-3425</c:v>
@@ -1583,7 +2084,7 @@
                   <c:v>-2600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1700</c:v>
+                  <c:v>-2150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,15 +2763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>7142</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>183356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2293,7 +2794,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Zhukov G. Aleksandr" refreshedDate="44260.728933217593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="206">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Zhukov G. Aleksandr" refreshedDate="44261.948138888889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="206">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:D208" sheet="ACCT_009_01_02_2021_c"/>
   </cacheSource>
@@ -2308,7 +2809,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-24000" maxValue="9675"/>
     </cacheField>
     <cacheField name="goods" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="12">
         <s v="food"/>
         <s v="home"/>
         <s v="beauty"/>
@@ -2320,6 +2821,7 @@
         <s v="office"/>
         <s v="transport"/>
         <s v="restaurant"/>
+        <s v="café" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2427,7 +2929,7 @@
     <d v="2021-02-26T00:00:00"/>
     <s v="Argo Fitness             g Sankt-PeterRU"/>
     <n v="-300"/>
-    <x v="7"/>
+    <x v="6"/>
   </r>
   <r>
     <d v="2021-02-26T00:00:00"/>
@@ -2553,7 +3055,7 @@
     <d v="2021-02-23T00:00:00"/>
     <s v="IP PERMYAKOV V.G.        SANKT-PETERBURU"/>
     <n v="-47.5"/>
-    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-23T00:00:00"/>
@@ -2667,7 +3169,7 @@
     <d v="2021-02-20T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-49"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-20T00:00:00"/>
@@ -2769,7 +3271,7 @@
     <d v="2021-02-18T00:00:00"/>
     <s v="IP SARYEV F A O          SANKT-PETERBURU"/>
     <n v="-1342"/>
-    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-18T00:00:00"/>
@@ -2823,7 +3325,7 @@
     <d v="2021-02-16T00:00:00"/>
     <s v="IP PALAMARCHUK A.V.      ST.-PETERSBURRU"/>
     <n v="-970"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <d v="2021-02-16T00:00:00"/>
@@ -2835,7 +3337,7 @@
     <d v="2021-02-16T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-49"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-16T00:00:00"/>
@@ -2973,7 +3475,7 @@
     <d v="2021-02-12T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-49"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-12T00:00:00"/>
@@ -3015,7 +3517,7 @@
     <d v="2021-02-11T00:00:00"/>
     <s v="IP Tkachev               Sankt-PeterbuRU"/>
     <n v="-410"/>
-    <x v="7"/>
+    <x v="4"/>
   </r>
   <r>
     <d v="2021-02-11T00:00:00"/>
@@ -3051,7 +3553,7 @@
     <d v="2021-02-10T00:00:00"/>
     <s v="AKIRA1                   SANKT-PETERBURU"/>
     <n v="-780"/>
-    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-10T00:00:00"/>
@@ -3099,7 +3601,7 @@
     <d v="2021-02-09T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-149"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-09T00:00:00"/>
@@ -3135,7 +3637,7 @@
     <d v="2021-02-08T00:00:00"/>
     <s v="VENDEX                   SANKT-PETERBURU"/>
     <n v="-40"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-08T00:00:00"/>
@@ -3201,7 +3703,7 @@
     <d v="2021-02-07T00:00:00"/>
     <s v="Atele                    g Sankt-PeterRU"/>
     <n v="-1000"/>
-    <x v="7"/>
+    <x v="6"/>
   </r>
   <r>
     <d v="2021-02-07T00:00:00"/>
@@ -3243,7 +3745,7 @@
     <d v="2021-02-06T00:00:00"/>
     <s v="OKRAINA VKUSNEE          g Sankt-PeterRU"/>
     <n v="-559"/>
-    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-06T00:00:00"/>
@@ -3267,7 +3769,7 @@
     <d v="2021-02-06T00:00:00"/>
     <s v="IP SARYEV F A O          SANKT-PETERBURU"/>
     <n v="-615"/>
-    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-06T00:00:00"/>
@@ -3351,7 +3853,7 @@
     <d v="2021-02-05T00:00:00"/>
     <s v="IP PALAMARCHUK A.V.      ST.-PETERSBURRU"/>
     <n v="-850"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <d v="2021-02-04T00:00:00"/>
@@ -3369,7 +3871,7 @@
     <d v="2021-02-04T00:00:00"/>
     <s v="SINSAY                   SANKT-PETERBURU"/>
     <n v="-234"/>
-    <x v="7"/>
+    <x v="6"/>
   </r>
   <r>
     <d v="2021-02-04T00:00:00"/>
@@ -3405,7 +3907,7 @@
     <d v="2021-02-04T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-114"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-04T00:00:00"/>
@@ -3417,7 +3919,7 @@
     <d v="2021-02-03T00:00:00"/>
     <s v="IP PALAMARCHUK A.V.      ST.-PETERSBURRU"/>
     <n v="-1630"/>
-    <x v="7"/>
+    <x v="3"/>
   </r>
   <r>
     <d v="2021-02-03T00:00:00"/>
@@ -3435,7 +3937,7 @@
     <d v="2021-02-03T00:00:00"/>
     <s v="IP PERMYAKOV V.G.        SANKT-PETERBURU"/>
     <n v="-330"/>
-    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-03T00:00:00"/>
@@ -3447,7 +3949,7 @@
     <d v="2021-02-03T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-114"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-03T00:00:00"/>
@@ -3459,7 +3961,7 @@
     <d v="2021-02-03T00:00:00"/>
     <s v="SP IP TROFIMOV L.S.      SANKT-PETERBURU"/>
     <n v="-450"/>
-    <x v="7"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2021-02-02T00:00:00"/>
@@ -3483,7 +3985,7 @@
     <d v="2021-02-02T00:00:00"/>
     <s v="IP ZHURAVLEVA E.A.       SANKT-PETERBURU"/>
     <n v="-1115.07"/>
-    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-02T00:00:00"/>
@@ -3501,7 +4003,7 @@
     <d v="2021-02-02T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-49"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-02T00:00:00"/>
@@ -3543,7 +4045,7 @@
     <d v="2021-02-01T00:00:00"/>
     <s v="LYUDI LYUBYAT            SANKT-PETERBURU"/>
     <n v="-49"/>
-    <x v="0"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2021-02-01T00:00:00"/>
@@ -3573,14 +4075,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="ИТОГО" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Статьи">
-  <location ref="P11:Q23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="ИТОГО" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Статьи">
+  <location ref="P2:Q14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField name="Статьи" axis="axisRow" showAll="0" sortType="ascending">
-      <items count="12">
+      <items count="13">
         <item x="2"/>
         <item x="4"/>
         <item x="0"/>
@@ -3592,6 +4094,7 @@
         <item x="5"/>
         <item x="9"/>
         <item x="7"/>
+        <item m="1" x="11"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3619,19 +4122,19 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="9"/>
@@ -3653,72 +4156,72 @@
     <dataField name="Суммы" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="67">
+    <format dxfId="127">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="126">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="125">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="124">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="123">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="118">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="117">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="116">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="13">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3732,6 +4235,138 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -4012,23 +4647,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44255</v>
       </c>
@@ -4041,8 +4676,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44255</v>
       </c>
@@ -4055,8 +4696,14 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>-45806.369999999988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44255</v>
       </c>
@@ -4069,8 +4716,14 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>-29800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44255</v>
       </c>
@@ -4083,8 +4736,14 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>-21915.649999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44255</v>
       </c>
@@ -4097,8 +4756,14 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>-10860.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44255</v>
       </c>
@@ -4111,8 +4776,14 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>-10291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44255</v>
       </c>
@@ -4125,8 +4796,14 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>-9914.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44254</v>
       </c>
@@ -4139,8 +4816,14 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>-5099.1499999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44254</v>
       </c>
@@ -4152,6 +4835,12 @@
       </c>
       <c r="D10" t="s">
         <v>3</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>-3707.1</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -4167,11 +4856,11 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>103</v>
+      <c r="P11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>-3425</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -4188,10 +4877,10 @@
         <v>3</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="5">
-        <v>-41639.799999999988</v>
+        <v>-2600</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -4208,10 +4897,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="5">
-        <v>-29800</v>
+        <v>-2150</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -4228,13 +4917,13 @@
         <v>19</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>-20381.650000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>-145569.34999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44254</v>
       </c>
@@ -4247,14 +4936,8 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>-14379.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44253</v>
       </c>
@@ -4267,14 +4950,8 @@
       <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>-10860.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44253</v>
       </c>
@@ -4287,14 +4964,8 @@
       <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>-9504.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44253</v>
       </c>
@@ -4305,16 +4976,10 @@
         <v>-300</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>-6841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44253</v>
       </c>
@@ -4327,14 +4992,8 @@
       <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>-4437.1499999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44253</v>
       </c>
@@ -4347,14 +5006,8 @@
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>-3425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44253</v>
       </c>
@@ -4367,14 +5020,8 @@
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>-2600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44253</v>
       </c>
@@ -4387,14 +5034,8 @@
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>-1700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44253</v>
       </c>
@@ -4407,14 +5048,8 @@
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>-145569.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44253</v>
       </c>
@@ -4428,7 +5063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44253</v>
       </c>
@@ -4442,7 +5077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44252</v>
       </c>
@@ -4456,7 +5091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44252</v>
       </c>
@@ -4470,7 +5105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44252</v>
       </c>
@@ -4484,7 +5119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44252</v>
       </c>
@@ -4498,7 +5133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44251</v>
       </c>
@@ -4512,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44251</v>
       </c>
@@ -4526,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44251</v>
       </c>
@@ -4540,7 +5175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44251</v>
       </c>
@@ -4568,7 +5203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44251</v>
       </c>
@@ -4582,7 +5217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44251</v>
       </c>
@@ -4596,7 +5231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44250</v>
       </c>
@@ -4624,7 +5259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44250</v>
       </c>
@@ -4635,10 +5270,10 @@
         <v>-47.5</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44250</v>
       </c>
@@ -4652,7 +5287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44249</v>
       </c>
@@ -4666,7 +5301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44249</v>
       </c>
@@ -4694,7 +5329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44249</v>
       </c>
@@ -4708,7 +5343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44248</v>
       </c>
@@ -4722,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44248</v>
       </c>
@@ -4750,7 +5385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44248</v>
       </c>
@@ -4764,7 +5399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44248</v>
       </c>
@@ -4792,7 +5427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44248</v>
       </c>
@@ -4806,7 +5441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44248</v>
       </c>
@@ -4820,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44247</v>
       </c>
@@ -4834,7 +5469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44247</v>
       </c>
@@ -4862,7 +5497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44247</v>
       </c>
@@ -4876,7 +5511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44247</v>
       </c>
@@ -4890,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44247</v>
       </c>
@@ -4901,10 +5536,10 @@
         <v>-49</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44247</v>
       </c>
@@ -4918,7 +5553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44247</v>
       </c>
@@ -4932,7 +5567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44247</v>
       </c>
@@ -4946,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44247</v>
       </c>
@@ -5002,7 +5637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44247</v>
       </c>
@@ -5016,7 +5651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44247</v>
       </c>
@@ -5030,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44246</v>
       </c>
@@ -5044,7 +5679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44246</v>
       </c>
@@ -5058,7 +5693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44246</v>
       </c>
@@ -5072,7 +5707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44246</v>
       </c>
@@ -5086,7 +5721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44245</v>
       </c>
@@ -5100,7 +5735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44245</v>
       </c>
@@ -5114,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44245</v>
       </c>
@@ -5128,7 +5763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44245</v>
       </c>
@@ -5139,10 +5774,10 @@
         <v>-1342</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44245</v>
       </c>
@@ -5156,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44244</v>
       </c>
@@ -5170,7 +5805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44244</v>
       </c>
@@ -5184,7 +5819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44244</v>
       </c>
@@ -5198,7 +5833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44244</v>
       </c>
@@ -5212,7 +5847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44244</v>
       </c>
@@ -5226,7 +5861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44244</v>
       </c>
@@ -5240,7 +5875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44243</v>
       </c>
@@ -5254,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44243</v>
       </c>
@@ -5265,10 +5900,10 @@
         <v>-970</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44243</v>
       </c>
@@ -5282,7 +5917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44243</v>
       </c>
@@ -5293,10 +5928,10 @@
         <v>-49</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44243</v>
       </c>
@@ -5310,7 +5945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44243</v>
       </c>
@@ -5324,7 +5959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44243</v>
       </c>
@@ -5352,7 +5987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44242</v>
       </c>
@@ -5366,7 +6001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44242</v>
       </c>
@@ -5380,7 +6015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44242</v>
       </c>
@@ -5394,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44241</v>
       </c>
@@ -5408,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44241</v>
       </c>
@@ -5422,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44241</v>
       </c>
@@ -5436,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44241</v>
       </c>
@@ -5464,7 +6099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44240</v>
       </c>
@@ -5478,7 +6113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44240</v>
       </c>
@@ -5506,7 +6141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44240</v>
       </c>
@@ -5520,7 +6155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44240</v>
       </c>
@@ -5534,7 +6169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44240</v>
       </c>
@@ -5548,7 +6183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44240</v>
       </c>
@@ -5562,7 +6197,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44240</v>
       </c>
@@ -5576,7 +6211,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44239</v>
       </c>
@@ -5590,7 +6225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44239</v>
       </c>
@@ -5604,7 +6239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44239</v>
       </c>
@@ -5615,10 +6250,10 @@
         <v>-49</v>
       </c>
       <c r="D109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44239</v>
       </c>
@@ -5632,7 +6267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44239</v>
       </c>
@@ -5646,7 +6281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44239</v>
       </c>
@@ -5660,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44239</v>
       </c>
@@ -5674,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44239</v>
       </c>
@@ -5688,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44239</v>
       </c>
@@ -5713,10 +6348,10 @@
         <v>-410</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44238</v>
       </c>
@@ -5730,7 +6365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44238</v>
       </c>
@@ -5758,7 +6393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44238</v>
       </c>
@@ -5772,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44238</v>
       </c>
@@ -5786,7 +6421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44237</v>
       </c>
@@ -5797,10 +6432,10 @@
         <v>-780</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44237</v>
       </c>
@@ -5814,7 +6449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44237</v>
       </c>
@@ -5828,7 +6463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44237</v>
       </c>
@@ -5842,7 +6477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44236</v>
       </c>
@@ -5870,7 +6505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44236</v>
       </c>
@@ -5884,7 +6519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44236</v>
       </c>
@@ -5898,7 +6533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44236</v>
       </c>
@@ -5909,10 +6544,10 @@
         <v>-149</v>
       </c>
       <c r="D130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44236</v>
       </c>
@@ -5926,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44236</v>
       </c>
@@ -5940,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44236</v>
       </c>
@@ -5954,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44235</v>
       </c>
@@ -5968,7 +6603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44235</v>
       </c>
@@ -5982,7 +6617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44235</v>
       </c>
@@ -5993,10 +6628,10 @@
         <v>-40</v>
       </c>
       <c r="D136" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44235</v>
       </c>
@@ -6010,7 +6645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44235</v>
       </c>
@@ -6024,7 +6659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44235</v>
       </c>
@@ -6038,7 +6673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44235</v>
       </c>
@@ -6052,7 +6687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44235</v>
       </c>
@@ -6066,7 +6701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44235</v>
       </c>
@@ -6080,7 +6715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44235</v>
       </c>
@@ -6094,7 +6729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44235</v>
       </c>
@@ -6108,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44234</v>
       </c>
@@ -6122,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44234</v>
       </c>
@@ -6136,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44234</v>
       </c>
@@ -6147,10 +6782,10 @@
         <v>-1000</v>
       </c>
       <c r="D147" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44234</v>
       </c>
@@ -6164,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44234</v>
       </c>
@@ -6178,7 +6813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44234</v>
       </c>
@@ -6192,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44234</v>
       </c>
@@ -6206,7 +6841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44234</v>
       </c>
@@ -6220,7 +6855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44234</v>
       </c>
@@ -6234,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44233</v>
       </c>
@@ -6245,7 +6880,7 @@
         <v>-559</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -6276,7 +6911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44233</v>
       </c>
@@ -6290,7 +6925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44233</v>
       </c>
@@ -6301,10 +6936,10 @@
         <v>-615</v>
       </c>
       <c r="D158" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44233</v>
       </c>
@@ -6318,7 +6953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44233</v>
       </c>
@@ -6332,7 +6967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44233</v>
       </c>
@@ -6360,7 +6995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44232</v>
       </c>
@@ -6374,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44232</v>
       </c>
@@ -6388,7 +7023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44232</v>
       </c>
@@ -6416,7 +7051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44232</v>
       </c>
@@ -6430,7 +7065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44232</v>
       </c>
@@ -6444,7 +7079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44232</v>
       </c>
@@ -6458,7 +7093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44232</v>
       </c>
@@ -6472,7 +7107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44232</v>
       </c>
@@ -6486,7 +7121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44232</v>
       </c>
@@ -6497,10 +7132,10 @@
         <v>-850</v>
       </c>
       <c r="D172" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44231</v>
       </c>
@@ -6514,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44231</v>
       </c>
@@ -6528,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44231</v>
       </c>
@@ -6539,10 +7174,10 @@
         <v>-234</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44231</v>
       </c>
@@ -6556,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44231</v>
       </c>
@@ -6570,7 +7205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44231</v>
       </c>
@@ -6584,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44231</v>
       </c>
@@ -6598,7 +7233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -6612,7 +7247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44231</v>
       </c>
@@ -6623,10 +7258,10 @@
         <v>-114</v>
       </c>
       <c r="D181" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44231</v>
       </c>
@@ -6640,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44230</v>
       </c>
@@ -6651,10 +7286,10 @@
         <v>-1630</v>
       </c>
       <c r="D183" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44230</v>
       </c>
@@ -6668,7 +7303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44230</v>
       </c>
@@ -6682,7 +7317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44230</v>
       </c>
@@ -6693,10 +7328,10 @@
         <v>-330</v>
       </c>
       <c r="D186" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44230</v>
       </c>
@@ -6710,7 +7345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44230</v>
       </c>
@@ -6721,10 +7356,10 @@
         <v>-114</v>
       </c>
       <c r="D188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44230</v>
       </c>
@@ -6738,7 +7373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44230</v>
       </c>
@@ -6749,7 +7384,7 @@
         <v>-450</v>
       </c>
       <c r="D190" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6766,7 +7401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44229</v>
       </c>
@@ -6780,7 +7415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44229</v>
       </c>
@@ -6794,7 +7429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44229</v>
       </c>
@@ -6805,10 +7440,10 @@
         <v>-1115.07</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44229</v>
       </c>
@@ -6822,7 +7457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44229</v>
       </c>
@@ -6836,7 +7471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44229</v>
       </c>
@@ -6847,10 +7482,10 @@
         <v>-49</v>
       </c>
       <c r="D197" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44229</v>
       </c>
@@ -6864,7 +7499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44229</v>
       </c>
@@ -6878,7 +7513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44228</v>
       </c>
@@ -6892,7 +7527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44228</v>
       </c>
@@ -6906,7 +7541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44228</v>
       </c>
@@ -6917,10 +7552,10 @@
         <v>-550</v>
       </c>
       <c r="D202" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44228</v>
       </c>
@@ -6934,7 +7569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44228</v>
       </c>
@@ -6945,10 +7580,10 @@
         <v>-49</v>
       </c>
       <c r="D204" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44228</v>
       </c>
@@ -6962,7 +7597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44228</v>
       </c>
@@ -6976,7 +7611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44228</v>
       </c>
@@ -6990,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44228</v>
       </c>
